--- a/Benchmarks/benchmarkPlan.xlsx
+++ b/Benchmarks/benchmarkPlan.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="22980" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Benchmarks</t>
   </si>
@@ -80,12 +80,36 @@
   <si>
     <t>What happens when all nodes compete on the same area</t>
   </si>
+  <si>
+    <t>ins</t>
+  </si>
+  <si>
+    <t>rem</t>
+  </si>
+  <si>
+    <t>rq</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>Benchmark pecentage of run time per method? When equally distrbuted?</t>
+  </si>
+  <si>
+    <t>Also check HW for other benchmarks ideas</t>
+  </si>
+  <si>
+    <t>Who gets to 10000000 Elements</t>
+  </si>
+  <si>
+    <t>One thread executing logic only! Overhead of code complexity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,9 +171,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -158,6 +179,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -174,7 +198,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -248,7 +272,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -283,7 +306,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,48 +481,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1"/>
@@ -509,76 +531,76 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:10" ht="42.75">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:10" ht="57">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:10" ht="28.5">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:10" ht="28.5">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1"/>
@@ -587,43 +609,43 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:10" ht="28.5">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:10" ht="28.5">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -635,7 +657,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -647,7 +669,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -659,7 +681,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -671,9 +693,11 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -683,9 +707,11 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -695,9 +721,11 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -707,9 +735,11 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -719,10 +749,12 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>9917329</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -731,11 +763,18 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5605867</v>
+      </c>
+      <c r="D18" s="1">
+        <f>C18/C17</f>
+        <v>0.56525975895324232</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -743,11 +782,18 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3160471</v>
+      </c>
+      <c r="D19" s="1">
+        <f>C19/C17</f>
+        <v>0.31868167326101615</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -755,11 +801,18 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1010607</v>
+      </c>
+      <c r="D20" s="1">
+        <f>C20/C17</f>
+        <v>0.10190314347744237</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -767,11 +820,18 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1">
+        <v>140390</v>
+      </c>
+      <c r="D21" s="1">
+        <f>C21/C17</f>
+        <v>1.415602930990794E-2</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -779,7 +839,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -791,7 +851,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -803,7 +863,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -815,7 +875,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -827,7 +887,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -839,7 +899,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -851,7 +911,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -863,7 +923,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -875,7 +935,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -887,7 +947,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -899,7 +959,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -911,7 +971,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -923,7 +983,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -935,7 +995,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -947,7 +1007,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -959,7 +1019,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -971,7 +1031,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -983,7 +1043,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -995,7 +1055,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1007,7 +1067,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1019,7 +1079,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1031,7 +1091,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1043,7 +1103,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1055,7 +1115,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1067,7 +1127,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1079,7 +1139,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1091,7 +1151,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1103,7 +1163,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1115,7 +1175,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1127,7 +1187,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1139,7 +1199,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1151,7 +1211,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1163,7 +1223,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1175,7 +1235,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1187,7 +1247,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1199,7 +1259,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1211,7 +1271,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1223,7 +1283,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1235,7 +1295,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1247,7 +1307,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1259,7 +1319,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1271,7 +1331,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1283,7 +1343,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1295,7 +1355,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1307,7 +1367,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1319,7 +1379,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1331,7 +1391,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1343,7 +1403,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1355,7 +1415,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1367,7 +1427,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1379,7 +1439,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1391,7 +1451,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1403,7 +1463,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1415,7 +1475,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1427,7 +1487,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1439,7 +1499,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1451,7 +1511,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1463,7 +1523,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1475,7 +1535,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1487,7 +1547,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1499,7 +1559,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1511,7 +1571,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1523,7 +1583,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1535,7 +1595,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1547,7 +1607,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1559,7 +1619,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1571,7 +1631,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1583,7 +1643,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1595,7 +1655,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1607,7 +1667,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1619,7 +1679,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1631,7 +1691,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1643,7 +1703,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1655,7 +1715,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1667,7 +1727,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1679,7 +1739,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1691,7 +1751,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1703,7 +1763,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1715,7 +1775,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1727,7 +1787,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1739,7 +1799,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1751,7 +1811,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1763,7 +1823,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1775,7 +1835,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1787,7 +1847,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1799,7 +1859,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1811,7 +1871,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1823,7 +1883,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1835,7 +1895,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1847,7 +1907,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1859,7 +1919,7 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1871,7 +1931,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1883,7 +1943,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1895,7 +1955,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1907,7 +1967,7 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1919,7 +1979,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1931,7 +1991,7 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1943,7 +2003,7 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1955,7 +2015,7 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1967,7 +2027,7 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1979,7 +2039,7 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1991,7 +2051,7 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2003,7 +2063,7 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2015,7 +2075,7 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2027,7 +2087,7 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2039,7 +2099,7 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -2051,7 +2111,7 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2063,7 +2123,7 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2075,7 +2135,7 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2087,7 +2147,7 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2099,7 +2159,7 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2111,7 +2171,7 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2123,7 +2183,7 @@
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2135,7 +2195,7 @@
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2147,7 +2207,7 @@
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2159,7 +2219,7 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2171,7 +2231,7 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2183,7 +2243,7 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -2195,7 +2255,7 @@
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2207,7 +2267,7 @@
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -2219,7 +2279,7 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -2231,7 +2291,7 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -2243,7 +2303,7 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -2255,7 +2315,7 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -2267,7 +2327,7 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -2279,7 +2339,7 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -2291,7 +2351,7 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -2303,7 +2363,7 @@
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -2315,7 +2375,7 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -2327,7 +2387,7 @@
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -2339,7 +2399,7 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -2351,7 +2411,7 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2363,7 +2423,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -2375,7 +2435,7 @@
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -2387,7 +2447,7 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -2399,7 +2459,7 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -2411,7 +2471,7 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -2423,7 +2483,7 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -2435,7 +2495,7 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -2447,7 +2507,7 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -2459,7 +2519,7 @@
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -2471,7 +2531,7 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -2483,7 +2543,7 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -2495,7 +2555,7 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -2507,7 +2567,7 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -2519,7 +2579,7 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -2531,7 +2591,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -2543,7 +2603,7 @@
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -2555,7 +2615,7 @@
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -2567,7 +2627,7 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -2579,7 +2639,7 @@
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -2591,7 +2651,7 @@
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -2603,7 +2663,7 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -2615,7 +2675,7 @@
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -2627,7 +2687,7 @@
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -2639,7 +2699,7 @@
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -2651,7 +2711,7 @@
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -2663,7 +2723,7 @@
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -2675,7 +2735,7 @@
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -2687,7 +2747,7 @@
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -2699,7 +2759,7 @@
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -2711,7 +2771,7 @@
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -2723,7 +2783,7 @@
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -2735,7 +2795,7 @@
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -2747,7 +2807,7 @@
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -2759,7 +2819,7 @@
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -2771,7 +2831,7 @@
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -2783,7 +2843,7 @@
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -2795,7 +2855,7 @@
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -2807,7 +2867,7 @@
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -2819,7 +2879,7 @@
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -2831,7 +2891,7 @@
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -2843,7 +2903,7 @@
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -2855,7 +2915,7 @@
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -2867,7 +2927,7 @@
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -2879,7 +2939,7 @@
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -2891,7 +2951,7 @@
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -2903,7 +2963,7 @@
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -2915,7 +2975,7 @@
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -2927,7 +2987,7 @@
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -2939,7 +2999,7 @@
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -2951,7 +3011,7 @@
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -2963,7 +3023,7 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -2975,7 +3035,7 @@
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -2987,7 +3047,7 @@
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -2999,7 +3059,7 @@
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -3011,7 +3071,7 @@
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -3023,7 +3083,7 @@
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -3035,7 +3095,7 @@
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -3047,7 +3107,7 @@
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -3059,7 +3119,7 @@
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -3071,7 +3131,7 @@
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -3083,7 +3143,7 @@
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -3095,7 +3155,7 @@
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -3107,7 +3167,7 @@
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -3119,7 +3179,7 @@
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -3131,7 +3191,7 @@
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -3143,7 +3203,7 @@
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -3155,7 +3215,7 @@
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -3176,24 +3236,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Benchmarks/benchmarkPlan.xlsx
+++ b/Benchmarks/benchmarkPlan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyakobi\Documents\GitHub\LeapList\Benchmarks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="22980" windowHeight="9555"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Benchmarks</t>
   </si>
@@ -81,39 +86,18 @@
     <t>What happens when all nodes compete on the same area</t>
   </si>
   <si>
-    <t>ins</t>
-  </si>
-  <si>
-    <t>rem</t>
-  </si>
-  <si>
-    <t>rq</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>Benchmark pecentage of run time per method? When equally distrbuted?</t>
-  </si>
-  <si>
-    <t>Also check HW for other benchmarks ideas</t>
-  </si>
-  <si>
-    <t>Who gets to 10000000 Elements</t>
-  </si>
-  <si>
-    <t>One thread executing logic only! Overhead of code complexity</t>
+    <t>yossi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -193,12 +177,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -240,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,9 +259,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,6 +294,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,18 +470,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -531,7 +520,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="42.75">
+    <row r="3" spans="1:10" ht="45">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -551,7 +540,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="57">
+    <row r="4" spans="1:10" ht="60">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -564,14 +553,16 @@
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="28.5">
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -589,7 +580,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="28.5">
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -609,7 +600,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="28.5">
+    <row r="7" spans="1:10" ht="45">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -620,14 +611,16 @@
         <v>18</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="28.5">
+    <row r="8" spans="1:10" ht="45">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -695,9 +688,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -709,9 +700,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -723,9 +712,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -737,9 +724,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -752,9 +737,7 @@
     <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1">
-        <v>9917329</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -765,16 +748,9 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5605867</v>
-      </c>
-      <c r="D18" s="1">
-        <f>C18/C17</f>
-        <v>0.56525975895324232</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -784,16 +760,9 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3160471</v>
-      </c>
-      <c r="D19" s="1">
-        <f>C19/C17</f>
-        <v>0.31868167326101615</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -803,16 +772,9 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1010607</v>
-      </c>
-      <c r="D20" s="1">
-        <f>C20/C17</f>
-        <v>0.10190314347744237</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -822,16 +784,9 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="1">
-        <v>140390</v>
-      </c>
-      <c r="D21" s="1">
-        <f>C21/C17</f>
-        <v>1.415602930990794E-2</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3236,24 +3191,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
